--- a/differences_3.xlsx
+++ b/differences_3.xlsx
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>-2.599999999999994</v>
+        <v>-3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4593,10 +4593,10 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
         <v>6</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="X60" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="X61" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X75" t="n">
         <v>0</v>
@@ -6933,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X85" t="n">
         <v>0</v>
@@ -7009,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>0.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X86" t="n">
         <v>0</v>
